--- a/data/trans_dic/P37A$vacunapreferencia-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P37A$vacunapreferencia-Dificultad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.01692813746024311</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05052967383557344</v>
+        <v>0.05052967383557345</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02106845054167578</v>
+        <v>0.02115135468769469</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01532694364460575</v>
+        <v>0.01544141353437914</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.007744217689519612</v>
+        <v>0.007712576717342471</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03247000517488544</v>
+        <v>0.03453591167831211</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02489647032878147</v>
+        <v>0.02493883700135424</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01207209588985468</v>
+        <v>0.01246604388576675</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01274438618376206</v>
+        <v>0.01311245473386846</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03719869893941941</v>
+        <v>0.03467429390471016</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02656493091660954</v>
+        <v>0.02670938535652161</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01614764544727742</v>
+        <v>0.01581007430970085</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01227249405113711</v>
+        <v>0.01212806334313373</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03855214530512077</v>
+        <v>0.03918358110453164</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05342155128959479</v>
+        <v>0.05520844397030993</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03680643698230608</v>
+        <v>0.03633016943773536</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02375004501930187</v>
+        <v>0.02262223063067583</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07692265565554786</v>
+        <v>0.07996166803171119</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05058628940224279</v>
+        <v>0.05098214953951662</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02868652876223885</v>
+        <v>0.02901858614713233</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02997053739342487</v>
+        <v>0.03056769934510318</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06750489235406328</v>
+        <v>0.06800452529766589</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04688086902139441</v>
+        <v>0.0468782233134443</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0285480255734995</v>
+        <v>0.02928758892284749</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02325171824946896</v>
+        <v>0.0232875956875699</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.0635780777670068</v>
+        <v>0.06444736470314773</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.01241308092780406</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.05199164518820363</v>
+        <v>0.05199164518820362</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.02398186873469335</v>
@@ -833,7 +833,7 @@
         <v>0.01721024202829996</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.0558262125380614</v>
+        <v>0.05582621253806139</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02000903520224699</v>
+        <v>0.02019265236190605</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02417542616761773</v>
+        <v>0.02432928174300851</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.006906636825679828</v>
+        <v>0.006414484382259964</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0396754061688019</v>
+        <v>0.03945783385734501</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01597711142947116</v>
+        <v>0.01567646736319677</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01477371458583086</v>
+        <v>0.01460248209564682</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01272584654475968</v>
+        <v>0.01271114934144422</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04845737284702579</v>
+        <v>0.04888297238601608</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01982705490121531</v>
+        <v>0.02000052734655308</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0214540278739427</v>
+        <v>0.02155829988788497</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01123744662357418</v>
+        <v>0.01178542522168559</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04790198004913492</v>
+        <v>0.04736762460236104</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0404228872559387</v>
+        <v>0.0398904328454095</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04747988338859849</v>
+        <v>0.0482076213913491</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02155469604646171</v>
+        <v>0.02176511265469177</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06765763776888312</v>
+        <v>0.06710320068371509</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03540346632798481</v>
+        <v>0.03639909221469673</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03259369548983888</v>
+        <v>0.03318396114001036</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03350577895250223</v>
+        <v>0.03312585852897969</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07104209388538428</v>
+        <v>0.07076433627922639</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03392297431336036</v>
+        <v>0.03371953181732992</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03611486567589317</v>
+        <v>0.0356637926148184</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02429165234946725</v>
+        <v>0.02406065967222103</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06596663103587877</v>
+        <v>0.06575898043058885</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01329231957064405</v>
+        <v>0.01415805712055395</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01797527283253431</v>
+        <v>0.01810723514986716</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01102974303443526</v>
+        <v>0.01115083572391205</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09465216969686331</v>
+        <v>0.09654644304362597</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.007725412339285012</v>
+        <v>0.006883143819712511</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.008977573559953158</v>
+        <v>0.008515115499682325</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.005784361613825511</v>
+        <v>0.006578885056013337</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08923282402779206</v>
+        <v>0.08931471419166133</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01242307646568505</v>
+        <v>0.01268945184179405</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0158706745303364</v>
+        <v>0.0154448384659333</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01029252162288217</v>
+        <v>0.01045558630440953</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09817752904921685</v>
+        <v>0.09795782613149322</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03204961050155904</v>
+        <v>0.03340184207473732</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0429387714491397</v>
+        <v>0.04143569260547928</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03159110141778025</v>
+        <v>0.03184714227163073</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1367780762575701</v>
+        <v>0.1359286136788458</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02337519030684026</v>
+        <v>0.02230665696229966</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02640544352295968</v>
+        <v>0.02617932737796818</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0220376877930743</v>
+        <v>0.0238495943030052</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.123446000519254</v>
+        <v>0.1227297411854782</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02465929763582649</v>
+        <v>0.02555634541702079</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03054094835920508</v>
+        <v>0.02969537086713614</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0231655599232011</v>
+        <v>0.0232954474548391</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1244683997672505</v>
+        <v>0.1242225322034352</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01831490691795045</v>
+        <v>0.01785697920182305</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02446990330850393</v>
+        <v>0.02700010410191565</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01139693559506969</v>
+        <v>0.01157448268717091</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06201100647207953</v>
+        <v>0.06278752623534338</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02134297372655813</v>
+        <v>0.02006560609483544</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.007102886105364387</v>
+        <v>0.007181806729951104</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.006795995721416798</v>
+        <v>0.006687232623259998</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07128643760934877</v>
+        <v>0.0723487474430074</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02325886809140931</v>
+        <v>0.02431089630053822</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02091724987062335</v>
+        <v>0.01941645125805932</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01114936463169506</v>
+        <v>0.0112478332337975</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0708350675929066</v>
+        <v>0.07128223525273053</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05231656060783756</v>
+        <v>0.05272819949124678</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06102272522229448</v>
+        <v>0.06448781501668943</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03600668617983424</v>
+        <v>0.03657560218168662</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09550979188368137</v>
+        <v>0.09678215845448061</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06385178221473627</v>
+        <v>0.06238372102183535</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03574793340360974</v>
+        <v>0.03548866152915096</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03163999612533682</v>
+        <v>0.02945597970005729</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1033144602801475</v>
+        <v>0.1025520668233688</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04918783753902144</v>
+        <v>0.05177878049514056</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04351346062387849</v>
+        <v>0.04382727865126861</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02897266607920735</v>
+        <v>0.02786689319754831</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09394181547659929</v>
+        <v>0.09475978806109736</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.01808578369515946</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.07725413551932506</v>
+        <v>0.07725413551932507</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.02672024143493138</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02141013336974069</v>
+        <v>0.0224696220936327</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02484842642268871</v>
+        <v>0.02476630537670651</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01226254175221126</v>
+        <v>0.0120716711180607</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06898813859155382</v>
+        <v>0.06976810850976571</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02065143357779978</v>
+        <v>0.02060168073505723</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01494666426445936</v>
+        <v>0.0151795769423697</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01357087771877036</v>
+        <v>0.01409177188866975</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06976474043005676</v>
+        <v>0.06942141337039104</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02283777635828795</v>
+        <v>0.0229422979624335</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02146135700600769</v>
+        <v>0.02120481064301428</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01396931364225631</v>
+        <v>0.01420793847307219</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07178680149268148</v>
+        <v>0.07205601874894696</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0337152465170397</v>
+        <v>0.03420812555919498</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03709092939001605</v>
+        <v>0.03678825434007583</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02074549321105336</v>
+        <v>0.02033633101139988</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08749785584664166</v>
+        <v>0.08904957699705965</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03308296629790732</v>
+        <v>0.03185273876398892</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02427057907886761</v>
+        <v>0.02476014726552303</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02270227933972207</v>
+        <v>0.0232813423948402</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08448783797308053</v>
+        <v>0.08485192320266051</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03071024411904918</v>
+        <v>0.03139384051332036</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02914184078416703</v>
+        <v>0.02878677436581345</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02072144925845458</v>
+        <v>0.02035575538798185</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.08372064392960586</v>
+        <v>0.08474735433689923</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12307</v>
+        <v>12355</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>16000</v>
+        <v>16120</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8735</v>
+        <v>8700</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>16194</v>
+        <v>17224</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>22963</v>
+        <v>23002</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>13520</v>
+        <v>13961</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>16052</v>
+        <v>16516</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>23196</v>
+        <v>21622</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>40019</v>
+        <v>40237</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>34941</v>
+        <v>34211</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>29301</v>
+        <v>28956</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>43268</v>
+        <v>43977</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>31206</v>
+        <v>32250</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>38424</v>
+        <v>37926</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26790</v>
+        <v>25518</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>38364</v>
+        <v>39880</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>46657</v>
+        <v>47023</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>32127</v>
+        <v>32499</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>37750</v>
+        <v>38502</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>42095</v>
+        <v>42406</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>70625</v>
+        <v>70621</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>61774</v>
+        <v>63374</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>55515</v>
+        <v>55600</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>71355</v>
+        <v>72331</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>21568</v>
+        <v>21766</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>23621</v>
+        <v>23771</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6277</v>
+        <v>5830</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>38094</v>
+        <v>37885</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>16896</v>
+        <v>16578</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>16166</v>
+        <v>15979</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>12808</v>
+        <v>12793</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>54071</v>
+        <v>54546</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>42339</v>
+        <v>42710</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>44438</v>
+        <v>44654</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>21523</v>
+        <v>22573</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>99444</v>
+        <v>98335</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>43572</v>
+        <v>42998</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>46391</v>
+        <v>47102</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>19589</v>
+        <v>19781</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>64961</v>
+        <v>64428</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>37441</v>
+        <v>38493</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>35666</v>
+        <v>36312</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>33723</v>
+        <v>33340</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>79272</v>
+        <v>78962</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>72440</v>
+        <v>72006</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>74806</v>
+        <v>73872</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>46526</v>
+        <v>46083</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>136946</v>
+        <v>136515</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>14909</v>
+        <v>15880</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>15910</v>
+        <v>16027</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9086</v>
+        <v>9186</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>99052</v>
+        <v>101034</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>7679</v>
+        <v>6841</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7863</v>
+        <v>7458</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>4460</v>
+        <v>5073</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>93484</v>
+        <v>93570</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>26281</v>
+        <v>26845</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>27947</v>
+        <v>27197</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>16415</v>
+        <v>16675</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>205596</v>
+        <v>205136</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>35947</v>
+        <v>37463</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>38006</v>
+        <v>36675</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>26023</v>
+        <v>26234</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>143135</v>
+        <v>142246</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>23234</v>
+        <v>22171</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>23126</v>
+        <v>22928</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>16992</v>
+        <v>18389</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>129327</v>
+        <v>128577</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>52168</v>
+        <v>54065</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>53780</v>
+        <v>52291</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>36945</v>
+        <v>37152</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>260652</v>
+        <v>260137</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8190</v>
+        <v>7986</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>12309</v>
+        <v>13582</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5775</v>
+        <v>5865</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>60518</v>
+        <v>61276</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7281</v>
+        <v>6846</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3216</v>
+        <v>3251</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3328</v>
+        <v>3275</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>64895</v>
+        <v>65862</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>18336</v>
+        <v>19166</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>19992</v>
+        <v>18557</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>11109</v>
+        <v>11207</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>133614</v>
+        <v>134458</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>23396</v>
+        <v>23580</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>30696</v>
+        <v>32439</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>18245</v>
+        <v>18533</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>93211</v>
+        <v>94453</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>21784</v>
+        <v>21283</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>16184</v>
+        <v>16067</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>15494</v>
+        <v>14425</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>94052</v>
+        <v>93358</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>38778</v>
+        <v>40820</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>41588</v>
+        <v>41888</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>28868</v>
+        <v>27767</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>177200</v>
+        <v>178743</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>69172</v>
+        <v>72596</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>84712</v>
+        <v>84432</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>41291</v>
+        <v>40649</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>240167</v>
+        <v>242883</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>68459</v>
+        <v>68294</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>52952</v>
+        <v>53777</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>47862</v>
+        <v>49699</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>257949</v>
+        <v>256680</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>149491</v>
+        <v>150176</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>149196</v>
+        <v>147413</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>96305</v>
+        <v>97951</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>515336</v>
+        <v>517269</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>108928</v>
+        <v>110521</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>126448</v>
+        <v>125416</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>69856</v>
+        <v>68478</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>304605</v>
+        <v>310007</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>109669</v>
+        <v>105591</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>85984</v>
+        <v>87718</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>80066</v>
+        <v>82108</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>312387</v>
+        <v>313733</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>201023</v>
+        <v>205498</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>202590</v>
+        <v>200122</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>142855</v>
+        <v>140334</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>601005</v>
+        <v>608376</v>
       </c>
     </row>
     <row r="24">
